--- a/ig/profiling_researchstudy/all-profiles.xlsx
+++ b/ig/profiling_researchstudy/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="396">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-03T17:19:20+00:00</t>
+    <t>2023-07-04T17:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -258,10 +258,10 @@
     <t>ECLAIRESecondarySponsor</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de promoteur(s) secondaire(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|Organization)
 </t>
   </si>
   <si>
@@ -916,6 +916,63 @@
     <t>Contact details to assist a user in learning more about or engaging with the study.</t>
   </si>
   <si>
+    <t>ResearchStudy.contact.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.extension:eclaire-contact-type</t>
+  </si>
+  <si>
+    <t>eclaire-contact-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-type}
+</t>
+  </si>
+  <si>
+    <t>type de contact : Public ou Scientific</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE qui indique le type de Contact! : Public ou Scientific</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.name</t>
+  </si>
+  <si>
+    <t>Name of an individual to contact</t>
+  </si>
+  <si>
+    <t>The name of an individual to contact.</t>
+  </si>
+  <si>
+    <t>If there is no named individual, the telecom information is for the organization as a whole.</t>
+  </si>
+  <si>
+    <t>ContactDetail.name</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>Contact details for individual or organization</t>
+  </si>
+  <si>
+    <t>The contact details for the individual (if a name was provided) or the organization.</t>
+  </si>
+  <si>
+    <t>ContactDetail.telecom</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>ResearchStudy.relatedArtifact</t>
   </si>
   <si>
@@ -1177,6 +1234,18 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/research-study-objective-type</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-type</t>
+  </si>
+  <si>
+    <t>ECLAIREContactType</t>
+  </si>
+  <si>
+    <t>element:ResearchStudy.contact</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-type-contact-vs</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-recruitment-period</t>
@@ -1316,7 +1385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2131,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>147</v>
+        <v>291</v>
       </c>
     </row>
     <row r="107">
@@ -2139,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>372</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108">
@@ -2155,7 +2224,7 @@
         <v>8</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>373</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110">
@@ -2207,7 +2276,7 @@
         <v>20</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>150</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117">
@@ -2275,6 +2344,166 @@
         <v>36</v>
       </c>
       <c r="B125" t="s" s="2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B146" t="s" s="2">
         <v>37</v>
       </c>
     </row>
@@ -2285,7 +2514,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK92"/>
+  <dimension ref="A1:AK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2295,7 +2524,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.2578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="41.0234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
@@ -2318,7 +2547,7 @@
     <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="124.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="54.97265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="71.38671875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="11.08203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="52.18359375" customWidth="true" bestFit="true"/>
@@ -8944,7 +9173,7 @@
         <v>39</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>38</v>
@@ -8956,17 +9185,15 @@
         <v>38</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
         <v>38</v>
@@ -9015,19 +9242,19 @@
         <v>38</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>288</v>
+        <v>48</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65">
@@ -9035,14 +9262,14 @@
         <v>80</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
@@ -9058,19 +9285,19 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>294</v>
+        <v>133</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>295</v>
+        <v>173</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
@@ -9096,10 +9323,10 @@
         <v>38</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>38</v>
@@ -9108,19 +9335,19 @@
         <v>38</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>293</v>
+        <v>55</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
@@ -9132,7 +9359,7 @@
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66">
@@ -9140,12 +9367,14 @@
         <v>80</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="D66" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="E66" t="s" s="2">
         <v>38</v>
       </c>
@@ -9154,7 +9383,7 @@
         <v>39</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>38</v>
@@ -9163,20 +9392,18 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
         <v>38</v>
@@ -9201,13 +9428,13 @@
         <v>38</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>301</v>
+        <v>38</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>38</v>
@@ -9225,7 +9452,7 @@
         <v>38</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>297</v>
+        <v>55</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>39</v>
@@ -9237,7 +9464,7 @@
         <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67">
@@ -9245,10 +9472,10 @@
         <v>80</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9268,19 +9495,19 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
@@ -9330,7 +9557,7 @@
         <v>38</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>39</v>
@@ -9350,14 +9577,14 @@
         <v>80</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>308</v>
+        <v>38</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" t="s" s="2">
@@ -9376,17 +9603,15 @@
         <v>92</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>38</v>
@@ -9435,7 +9660,7 @@
         <v>38</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>39</v>
@@ -9447,7 +9672,7 @@
         <v>42</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>226</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69">
@@ -9455,21 +9680,21 @@
         <v>80</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>314</v>
+        <v>38</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>38</v>
@@ -9478,19 +9703,19 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>216</v>
+        <v>310</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
@@ -9540,19 +9765,19 @@
         <v>38</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>218</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70">
@@ -9560,10 +9785,10 @@
         <v>80</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9574,7 +9799,7 @@
         <v>39</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>38</v>
@@ -9586,16 +9811,16 @@
         <v>92</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
@@ -9621,10 +9846,10 @@
         <v>38</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>38</v>
+        <v>268</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>38</v>
+        <v>314</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>38</v>
@@ -9645,19 +9870,19 @@
         <v>38</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>226</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71">
@@ -9665,10 +9890,10 @@
         <v>80</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9679,7 +9904,7 @@
         <v>39</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>38</v>
@@ -9691,16 +9916,16 @@
         <v>92</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
@@ -9726,13 +9951,13 @@
         <v>38</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>38</v>
+        <v>318</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>38</v>
+        <v>319</v>
       </c>
       <c r="AB71" t="s" s="2">
         <v>38</v>
@@ -9750,19 +9975,19 @@
         <v>38</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>226</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72">
@@ -9770,10 +9995,10 @@
         <v>80</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9784,7 +10009,7 @@
         <v>39</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>38</v>
@@ -9793,19 +10018,19 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
@@ -9855,19 +10080,19 @@
         <v>38</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>226</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73">
@@ -9875,21 +10100,21 @@
         <v>80</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>38</v>
+        <v>326</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>38</v>
@@ -9901,16 +10126,16 @@
         <v>92</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>187</v>
+        <v>327</v>
       </c>
       <c r="M73" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
@@ -9936,13 +10161,13 @@
         <v>38</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>332</v>
+        <v>38</v>
       </c>
       <c r="AB73" t="s" s="2">
         <v>38</v>
@@ -9960,19 +10185,19 @@
         <v>38</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>66</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74">
@@ -9980,21 +10205,21 @@
         <v>80</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>38</v>
@@ -10003,19 +10228,19 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="O74" t="s" s="2">
-        <v>337</v>
+        <v>216</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
@@ -10065,19 +10290,19 @@
         <v>38</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>66</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75">
@@ -10085,10 +10310,10 @@
         <v>80</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10099,7 +10324,7 @@
         <v>39</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>38</v>
@@ -10108,18 +10333,20 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>339</v>
+        <v>221</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
         <v>38</v>
@@ -10168,19 +10395,19 @@
         <v>38</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>66</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76">
@@ -10188,10 +10415,10 @@
         <v>80</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10211,18 +10438,20 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>38</v>
@@ -10271,7 +10500,7 @@
         <v>38</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>48</v>
+        <v>338</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>39</v>
@@ -10280,10 +10509,10 @@
         <v>44</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>38</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77">
@@ -10291,14 +10520,14 @@
         <v>80</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" t="s" s="2">
@@ -10314,19 +10543,19 @@
         <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>50</v>
+        <v>343</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>133</v>
+        <v>344</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>173</v>
+        <v>345</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>135</v>
+        <v>247</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -10364,19 +10593,19 @@
         <v>38</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>55</v>
+        <v>342</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>39</v>
@@ -10388,7 +10617,7 @@
         <v>42</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>56</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78">
@@ -10396,46 +10625,44 @@
         <v>80</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>345</v>
+        <v>38</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>92</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
         <v>38</v>
       </c>
@@ -10459,13 +10686,13 @@
         <v>38</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>38</v>
+        <v>268</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>38</v>
+        <v>349</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>38</v>
+        <v>350</v>
       </c>
       <c r="AB78" t="s" s="2">
         <v>38</v>
@@ -10483,19 +10710,19 @@
         <v>38</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79">
@@ -10503,10 +10730,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10514,10 +10741,10 @@
       </c>
       <c r="F79" s="2"/>
       <c r="G79" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>38</v>
@@ -10529,16 +10756,16 @@
         <v>38</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
@@ -10588,13 +10815,13 @@
         <v>38</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>42</v>
@@ -10608,10 +10835,10 @@
         <v>80</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10622,7 +10849,7 @@
         <v>39</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>38</v>
@@ -10634,17 +10861,15 @@
         <v>38</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>187</v>
+        <v>357</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
         <v>38</v>
@@ -10693,13 +10918,13 @@
         <v>38</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>42</v>
@@ -10713,10 +10938,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10742,14 +10967,12 @@
         <v>45</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>356</v>
+        <v>46</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
         <v>38</v>
@@ -10798,7 +11021,7 @@
         <v>38</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>355</v>
+        <v>48</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>39</v>
@@ -10807,10 +11030,10 @@
         <v>44</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82">
@@ -10818,14 +11041,14 @@
         <v>80</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
@@ -10844,15 +11067,17 @@
         <v>38</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>339</v>
+        <v>50</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>359</v>
+        <v>133</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
         <v>38</v>
@@ -10889,19 +11114,19 @@
         <v>38</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>358</v>
+        <v>55</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>39</v>
@@ -10913,7 +11138,7 @@
         <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83">
@@ -10921,42 +11146,46 @@
         <v>80</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>38</v>
+        <v>363</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>46</v>
+        <v>364</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="Q83" t="s" s="2">
         <v>38</v>
       </c>
@@ -11004,19 +11233,19 @@
         <v>38</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>48</v>
+        <v>366</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84">
@@ -11024,21 +11253,21 @@
         <v>80</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>38</v>
@@ -11050,16 +11279,16 @@
         <v>38</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>133</v>
+        <v>368</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>173</v>
+        <v>369</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
@@ -11097,31 +11326,31 @@
         <v>38</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>55</v>
+        <v>367</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85">
@@ -11129,46 +11358,44 @@
         <v>80</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>345</v>
+        <v>38</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
         <v>38</v>
       </c>
@@ -11216,19 +11443,19 @@
         <v>38</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86">
@@ -11236,10 +11463,10 @@
         <v>80</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11265,10 +11492,10 @@
         <v>45</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>242</v>
@@ -11321,7 +11548,7 @@
         <v>38</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>39</v>
@@ -11341,10 +11568,10 @@
         <v>80</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11355,7 +11582,7 @@
         <v>39</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>38</v>
@@ -11367,17 +11594,15 @@
         <v>38</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>187</v>
+        <v>357</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
         <v>38</v>
@@ -11402,13 +11627,13 @@
         <v>38</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>370</v>
+        <v>38</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>371</v>
+        <v>38</v>
       </c>
       <c r="AB87" t="s" s="2">
         <v>38</v>
@@ -11426,13 +11651,13 @@
         <v>38</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>42</v>
@@ -11443,13 +11668,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>29</v>
+        <v>379</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>29</v>
+        <v>379</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11460,7 +11685,7 @@
         <v>39</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>38</v>
@@ -11472,13 +11697,13 @@
         <v>38</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -11529,16 +11754,16 @@
         <v>38</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>38</v>
@@ -11546,24 +11771,24 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>43</v>
+        <v>380</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>43</v>
+        <v>380</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>38</v>
@@ -11575,15 +11800,17 @@
         <v>38</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
         <v>38</v>
@@ -11620,74 +11847,78 @@
         <v>38</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>49</v>
+        <v>381</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>49</v>
+        <v>381</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>38</v>
+        <v>363</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>50</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>29</v>
+        <v>364</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="Q90" t="s" s="2">
         <v>38</v>
       </c>
@@ -11723,19 +11954,19 @@
         <v>38</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>55</v>
+        <v>366</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>39</v>
@@ -11752,13 +11983,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>57</v>
+        <v>382</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>57</v>
+        <v>382</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11766,7 +11997,7 @@
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>44</v>
@@ -11781,16 +12012,16 @@
         <v>38</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>59</v>
+        <v>383</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>60</v>
+        <v>384</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>61</v>
+        <v>242</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
@@ -11798,7 +12029,7 @@
       </c>
       <c r="R91" s="2"/>
       <c r="S91" t="s" s="2">
-        <v>372</v>
+        <v>38</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>38</v>
@@ -11840,30 +12071,30 @@
         <v>38</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>57</v>
+        <v>382</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>62</v>
+        <v>385</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>62</v>
+        <v>385</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11886,15 +12117,17 @@
         <v>38</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>64</v>
+        <v>386</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
         <v>38</v>
@@ -11919,13 +12152,13 @@
         <v>38</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>38</v>
+        <v>388</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>38</v>
+        <v>389</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>38</v>
@@ -11943,7 +12176,7 @@
         <v>38</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>62</v>
+        <v>385</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>39</v>
@@ -11955,6 +12188,1038 @@
         <v>42</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R93" s="2"/>
+      <c r="S93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R94" s="2"/>
+      <c r="S94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R95" s="2"/>
+      <c r="S95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R96" s="2"/>
+      <c r="S96" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R97" s="2"/>
+      <c r="S97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z97" s="2"/>
+      <c r="AA97" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R98" s="2"/>
+      <c r="S98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R99" s="2"/>
+      <c r="S99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R100" s="2"/>
+      <c r="S100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R101" s="2"/>
+      <c r="S101" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R102" s="2"/>
+      <c r="S102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK102" t="s" s="2">
         <v>66</v>
       </c>
     </row>

--- a/ig/profiling_researchstudy/all-profiles.xlsx
+++ b/ig/profiling_researchstudy/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T17:45:33+00:00</t>
+    <t>2023-07-04T19:15:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/profiling_researchstudy/all-profiles.xlsx
+++ b/ig/profiling_researchstudy/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T19:15:23+00:00</t>
+    <t>2023-07-05T07:22:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -540,22 +540,22 @@
     <t>Slicing pour les différents identifiants de l'essai clinique</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire</t>
-  </si>
-  <si>
-    <t>idPrimaire</t>
+    <t>ResearchStudy.identifier:idPrimary</t>
+  </si>
+  <si>
+    <t>idPrimary</t>
   </si>
   <si>
     <t>Identifiant primaire de l'essai clinique / Primary Registry and Trial Identifying Number</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.id</t>
+    <t>ResearchStudy.identifier:idPrimary.id</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.id</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.extension</t>
+    <t>ResearchStudy.identifier:idPrimary.extension</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.extension</t>
@@ -564,7 +564,7 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.use</t>
+    <t>ResearchStudy.identifier:idPrimary.use</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.use</t>
@@ -597,7 +597,7 @@
     <t>Identifier.use</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.type</t>
+    <t>ResearchStudy.identifier:idPrimary.type</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.type</t>
@@ -631,7 +631,7 @@
     <t>Identifier.type</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.system</t>
+    <t>ResearchStudy.identifier:idPrimary.system</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.system</t>
@@ -655,7 +655,7 @@
     <t>Identifier.system</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.value</t>
+    <t>ResearchStudy.identifier:idPrimary.value</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.value</t>
@@ -676,7 +676,7 @@
     <t>Identifier.value</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.period</t>
+    <t>ResearchStudy.identifier:idPrimary.period</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.period</t>
@@ -703,7 +703,7 @@
 per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.assigner</t>
+    <t>ResearchStudy.identifier:idPrimary.assigner</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.assigner</t>
@@ -729,40 +729,40 @@
 ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idSecondaire</t>
-  </si>
-  <si>
-    <t>idSecondaire</t>
+    <t>ResearchStudy.identifier:idSecondary</t>
+  </si>
+  <si>
+    <t>idSecondary</t>
   </si>
   <si>
     <t>identifiants secondaires / Secondary Identifying Numbers (e.g., protocol number) if available.  Also include other trial registries that have issued an identifying number to this trial. There is no limit on the number of Secondary identifying numbers that can be provided.</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idSecondaire.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.use</t>
+    <t>ResearchStudy.identifier:idSecondary.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.use</t>
   </si>
   <si>
     <t>secondary</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idSecondaire.type</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.system</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.value</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.period</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.assigner</t>
+    <t>ResearchStudy.identifier:idSecondary.type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.value</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.period</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.assigner</t>
   </si>
   <si>
     <t>ResearchStudy.title</t>
@@ -867,7 +867,7 @@
     <t>ResearchStudy.category</t>
   </si>
   <si>
-    <t>Type d'essai (Study type : type of study</t>
+    <t>Type d'essai  / Study type : type of study</t>
   </si>
   <si>
     <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
@@ -935,7 +935,7 @@
     <t>type de contact : Public ou Scientific</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du projet ECLAIRE qui indique le type de Contact! : Public ou Scientific</t>
+    <t>Extension créée dans le cadre du projet ECLAIRE qui indique le type de Contact : Public ou Scientific</t>
   </si>
   <si>
     <t>ResearchStudy.contact.name</t>

--- a/ig/profiling_researchstudy/all-profiles.xlsx
+++ b/ig/profiling_researchstudy/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-05T07:22:55+00:00</t>
+    <t>2023-07-05T09:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/profiling_researchstudy/all-profiles.xlsx
+++ b/ig/profiling_researchstudy/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="395">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>eclaire-review-date</t>
+    <t>eclaire-secondary-sponsor</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-review-date</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-secondary-sponsor</t>
   </si>
   <si>
     <t>Version</t>
@@ -42,7 +42,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>ECLAIREReviewDate</t>
+    <t>ECLAIRESecondarySponsor</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-05T09:33:26+00:00</t>
+    <t>2023-07-05T09:53:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout d'une date de révision fonctionnelle lorque que l'on souhaite indiquer la date de la dernière modification substancielle</t>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -211,20 +211,89 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>eclaire-therapeutic-area</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-therapeutic-area</t>
+  </si>
+  <si>
+    <t>ECLAIRETherapeuticArea</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout du domaine thérapeutique concerné par l'essai</t>
+  </si>
+  <si>
+    <t>eclaire-recruitment-period</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-recruitment-period</t>
+  </si>
+  <si>
+    <t>ECLAIRERecruitmentPeriod</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de la période prévisionnelle de recrutement l'essai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>eclaire-review-date</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-review-date</t>
+  </si>
+  <si>
+    <t>ECLAIREReviewDate</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout d'une date de révision fonctionnelle lorque que l'on souhaite indiquer la date de la dernière modification substancielle</t>
+  </si>
+  <si>
     <t xml:space="preserve">date
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>eclaire-contact-type</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-type</t>
+  </si>
+  <si>
+    <t>ECLAIREContactType</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE qui indique le type de Contact : Public ou Scientific</t>
+  </si>
+  <si>
+    <t>element:ResearchStudy.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-type-contact-vs</t>
+  </si>
+  <si>
     <t>eclaire-condition-details</t>
   </si>
   <si>
@@ -235,34 +304,6 @@
   </si>
   <si>
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de précisions sur le sujet concerné par l'essai</t>
-  </si>
-  <si>
-    <t>eclaire-therapeutic-area</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-therapeutic-area</t>
-  </si>
-  <si>
-    <t>ECLAIRETherapeuticArea</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout du domaine thérapeutique concerné par l'essai</t>
-  </si>
-  <si>
-    <t>eclaire-secondary-sponsor</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-secondary-sponsor</t>
-  </si>
-  <si>
-    <t>ECLAIRESecondarySponsor</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|Organization)
-</t>
   </si>
   <si>
     <t>eclaire-researchstudy</t>
@@ -478,9 +519,6 @@
     <t>ResearchStudy.extension:eclaire-recruitment-period</t>
   </si>
   <si>
-    <t>eclaire-recruitment-period</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-recruitment-period}
 </t>
   </si>
@@ -488,9 +526,6 @@
     <t>Période prévisionnelle de recrutement</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de la période prévisionnelle de recrutement l'essai</t>
-  </si>
-  <si>
     <t>ResearchStudy.extension:eclaire-secondary-sponsor</t>
   </si>
   <si>
@@ -585,9 +620,6 @@
     <t>usual</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
@@ -603,10 +635,6 @@
     <t>ResearchStudy.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -680,10 +708,6 @@
   </si>
   <si>
     <t>ResearchStudy.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>Time period when id is/was valid for use</t>
@@ -709,10 +733,6 @@
     <t>ResearchStudy.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Organization that issued id (may be just text)</t>
   </si>
   <si>
@@ -925,9 +945,6 @@
     <t>ResearchStudy.contact.extension:eclaire-contact-type</t>
   </si>
   <si>
-    <t>eclaire-contact-type</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-type}
 </t>
   </si>
@@ -935,9 +952,6 @@
     <t>type de contact : Public ou Scientific</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du projet ECLAIRE qui indique le type de Contact : Public ou Scientific</t>
-  </si>
-  <si>
     <t>ResearchStudy.contact.name</t>
   </si>
   <si>
@@ -1234,24 +1248,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/research-study-objective-type</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-type</t>
-  </si>
-  <si>
-    <t>ECLAIREContactType</t>
-  </si>
-  <si>
-    <t>element:ResearchStudy.contact</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-type-contact-vs</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-recruitment-period</t>
-  </si>
-  <si>
-    <t>ECLAIRERecruitmentPeriod</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +1884,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
@@ -1896,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
@@ -1912,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
@@ -1964,7 +1960,7 @@
         <v>20</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
@@ -2048,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87">
@@ -2056,7 +2052,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88">
@@ -2072,7 +2068,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90">
@@ -2124,7 +2120,7 @@
         <v>20</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97">
@@ -2152,7 +2148,7 @@
         <v>26</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101">
@@ -2160,7 +2156,7 @@
         <v>28</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
@@ -2168,7 +2164,7 @@
         <v>30</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103">
@@ -2188,323 +2184,323 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="1">
+      <c r="A105" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B105" t="s" s="1">
+      <c r="B106" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>291</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>390</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>391</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B110" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>91</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B112" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>294</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B117" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>92</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B125" t="s" s="2">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="1">
+      <c r="B126" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B126" t="s" s="1">
+      <c r="B127" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>394</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>7</v>
+        <v>94</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>395</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B131" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B133" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>150</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B138" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>96</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>29</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>33</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2530,7 +2526,7 @@
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4038,7 +4034,7 @@
         <v>38</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>64</v>
@@ -4112,7 +4108,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>29</v>
@@ -4147,7 +4143,7 @@
         <v>29</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -4215,7 +4211,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>43</v>
@@ -4318,7 +4314,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>49</v>
@@ -4421,7 +4417,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>57</v>
@@ -4467,7 +4463,7 @@
       </c>
       <c r="R19" s="2"/>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>38</v>
@@ -4526,7 +4522,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>62</v>
@@ -4555,7 +4551,7 @@
         <v>38</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>64</v>
@@ -4629,17 +4625,17 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
@@ -4661,14 +4657,12 @@
         <v>41</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
         <v>38</v>
@@ -4717,7 +4711,7 @@
         <v>38</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -4726,7 +4720,7 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -4734,13 +4728,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4748,7 +4742,7 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>44</v>
@@ -4760,20 +4754,18 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
         <v>38</v>
@@ -4822,7 +4814,7 @@
         <v>38</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>39</v>
@@ -4839,13 +4831,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4856,7 +4848,7 @@
         <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>38</v>
@@ -4865,16 +4857,16 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4913,42 +4905,42 @@
         <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4956,7 +4948,7 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>44</v>
@@ -4965,22 +4957,22 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>58</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
@@ -4988,7 +4980,7 @@
       </c>
       <c r="R24" s="2"/>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>38</v>
@@ -5030,30 +5022,30 @@
         <v>38</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5076,17 +5068,15 @@
         <v>38</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
         <v>38</v>
@@ -5111,13 +5101,11 @@
         <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="Z25" s="2"/>
       <c r="AA25" t="s" s="2">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>38</v>
@@ -5135,7 +5123,7 @@
         <v>38</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -5152,24 +5140,24 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>38</v>
@@ -5181,17 +5169,15 @@
         <v>38</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
         <v>38</v>
@@ -5240,41 +5226,41 @@
         <v>38</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>38</v>
@@ -5286,17 +5272,15 @@
         <v>38</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>38</v>
@@ -5345,13 +5329,13 @@
         <v>38</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>38</v>
@@ -5362,24 +5346,24 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>38</v>
@@ -5394,14 +5378,12 @@
         <v>50</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
         <v>38</v>
@@ -5450,7 +5432,7 @@
         <v>54</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>39</v>
@@ -5467,23 +5449,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>3</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>44</v>
@@ -5498,22 +5478,24 @@
         <v>38</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>38</v>
@@ -5555,34 +5537,32 @@
         <v>38</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>38</v>
       </c>
@@ -5603,13 +5583,13 @@
         <v>38</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -5660,43 +5640,41 @@
         <v>38</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>38</v>
@@ -5708,15 +5686,17 @@
         <v>38</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
         <v>38</v>
@@ -5765,7 +5745,7 @@
         <v>38</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>39</v>
@@ -5774,25 +5754,23 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>38</v>
       </c>
@@ -5810,18 +5788,20 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>38</v>
@@ -5870,34 +5850,32 @@
         <v>38</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>38</v>
       </c>
@@ -5906,7 +5884,7 @@
         <v>39</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>38</v>
@@ -5915,16 +5893,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -5975,66 +5953,64 @@
         <v>38</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="P34" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>38</v>
       </c>
@@ -6070,42 +6046,42 @@
         <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6116,7 +6092,7 @@
         <v>39</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>38</v>
@@ -6125,21 +6101,21 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>38</v>
       </c>
@@ -6163,37 +6139,37 @@
         <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="AB35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>42</v>
@@ -6204,19 +6180,17 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
@@ -6232,21 +6206,21 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>38</v>
       </c>
@@ -6294,13 +6268,13 @@
         <v>38</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>42</v>
@@ -6311,24 +6285,24 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>38</v>
@@ -6340,15 +6314,17 @@
         <v>38</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>38</v>
@@ -6397,13 +6373,13 @@
         <v>38</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>38</v>
@@ -6414,17 +6390,17 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
@@ -6446,13 +6422,13 @@
         <v>50</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
@@ -6502,7 +6478,7 @@
         <v>54</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>39</v>
@@ -6519,21 +6495,23 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="E39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>44</v>
@@ -6542,26 +6520,22 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="P39" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>38</v>
       </c>
@@ -6570,7 +6544,7 @@
         <v>38</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>38</v>
@@ -6585,13 +6559,13 @@
         <v>38</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="AB39" t="s" s="2">
         <v>38</v>
@@ -6609,32 +6583,34 @@
         <v>38</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="E40" t="s" s="2">
         <v>38</v>
       </c>
@@ -6652,23 +6628,19 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>191</v>
-      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
         <v>38</v>
       </c>
@@ -6692,13 +6664,13 @@
         <v>38</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
         <v>38</v>
@@ -6716,32 +6688,34 @@
         <v>38</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="E41" t="s" s="2">
         <v>38</v>
       </c>
@@ -6759,23 +6733,19 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
         <v>38</v>
       </c>
@@ -6787,7 +6757,7 @@
         <v>38</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="V41" t="s" s="2">
         <v>38</v>
@@ -6823,32 +6793,34 @@
         <v>38</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="E42" t="s" s="2">
         <v>38</v>
       </c>
@@ -6866,20 +6838,18 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>38</v>
@@ -6892,7 +6862,7 @@
         <v>38</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="V42" t="s" s="2">
         <v>38</v>
@@ -6928,32 +6898,34 @@
         <v>38</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E43" t="s" s="2">
         <v>38</v>
       </c>
@@ -6962,7 +6934,7 @@
         <v>39</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>38</v>
@@ -6971,20 +6943,18 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
         <v>38</v>
@@ -7033,64 +7003,66 @@
         <v>38</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>218</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="P44" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="Q44" t="s" s="2">
         <v>38</v>
       </c>
@@ -7126,46 +7098,44 @@
         <v>38</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>226</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>38</v>
       </c>
@@ -7183,20 +7153,20 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="Q45" t="s" s="2">
         <v>38</v>
@@ -7233,19 +7203,19 @@
         <v>38</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
@@ -7262,15 +7232,17 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="E46" t="s" s="2">
         <v>38</v>
       </c>
@@ -7282,25 +7254,27 @@
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="Q46" t="s" s="2">
         <v>38</v>
       </c>
@@ -7348,41 +7322,41 @@
         <v>38</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>38</v>
@@ -7394,17 +7368,15 @@
         <v>38</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>38</v>
@@ -7441,78 +7413,76 @@
         <v>38</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="P48" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>38</v>
       </c>
@@ -7521,7 +7491,7 @@
         <v>38</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>38</v>
@@ -7536,51 +7506,51 @@
         <v>38</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="AB48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>186</v>
@@ -7591,7 +7561,7 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
@@ -7600,25 +7570,25 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="O49" t="s" s="2">
+      <c r="P49" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>38</v>
@@ -7628,7 +7598,7 @@
         <v>38</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>38</v>
@@ -7643,31 +7613,31 @@
         <v>38</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Z49" t="s" s="2">
+      <c r="AA49" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AA49" t="s" s="2">
+      <c r="AB49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG49" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
@@ -7684,13 +7654,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7710,22 +7680,22 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="M50" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="O50" t="s" s="2">
+      <c r="P50" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="Q50" t="s" s="2">
         <v>38</v>
@@ -7738,25 +7708,25 @@
         <v>38</v>
       </c>
       <c r="U50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="V50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="AA50" t="s" s="2">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="AB50" t="s" s="2">
         <v>38</v>
@@ -7774,7 +7744,7 @@
         <v>38</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>39</v>
@@ -7791,13 +7761,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7817,21 +7787,23 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="P51" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="Q51" t="s" s="2">
         <v>38</v>
       </c>
@@ -7843,7 +7815,7 @@
         <v>38</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="V51" t="s" s="2">
         <v>38</v>
@@ -7879,7 +7851,7 @@
         <v>38</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
@@ -7896,13 +7868,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7922,19 +7894,19 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
@@ -7948,7 +7920,7 @@
         <v>38</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="V52" t="s" s="2">
         <v>38</v>
@@ -7984,7 +7956,7 @@
         <v>38</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
@@ -7996,18 +7968,18 @@
         <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>218</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8027,10 +7999,10 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>222</v>
@@ -8106,13 +8078,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8132,19 +8104,19 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
@@ -8194,7 +8166,7 @@
         <v>38</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
@@ -8206,20 +8178,22 @@
         <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>66</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="D55" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="E55" t="s" s="2">
         <v>38</v>
       </c>
@@ -8231,27 +8205,27 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="P55" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>38</v>
       </c>
@@ -8299,7 +8273,7 @@
         <v>38</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>39</v>
@@ -8311,29 +8285,29 @@
         <v>42</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>226</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>38</v>
@@ -8342,23 +8316,19 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>251</v>
+        <v>46</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>38</v>
       </c>
@@ -8406,62 +8376,62 @@
         <v>38</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>226</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>256</v>
+        <v>184</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>242</v>
+        <v>148</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
@@ -8487,54 +8457,54 @@
         <v>38</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="AB57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>254</v>
+        <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8542,7 +8512,7 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>44</v>
@@ -8551,24 +8521,26 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="N58" t="s" s="2">
-        <v>261</v>
+        <v>188</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="P58" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="Q58" t="s" s="2">
         <v>38</v>
       </c>
@@ -8577,7 +8549,7 @@
         <v>38</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>38</v>
@@ -8592,13 +8564,13 @@
         <v>38</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="AA58" t="s" s="2">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="AB58" t="s" s="2">
         <v>38</v>
@@ -8616,7 +8588,7 @@
         <v>38</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
@@ -8633,13 +8605,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8659,21 +8631,23 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="P59" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="Q59" t="s" s="2">
         <v>38</v>
       </c>
@@ -8697,13 +8671,13 @@
         <v>38</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="AB59" t="s" s="2">
         <v>38</v>
@@ -8721,7 +8695,7 @@
         <v>38</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>39</v>
@@ -8738,13 +8712,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>271</v>
+        <v>206</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8755,7 +8729,7 @@
         <v>39</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>38</v>
@@ -8764,21 +8738,23 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>273</v>
+        <v>208</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="P60" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="Q60" t="s" s="2">
         <v>38</v>
       </c>
@@ -8790,7 +8766,7 @@
         <v>38</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="V60" t="s" s="2">
         <v>38</v>
@@ -8802,10 +8778,10 @@
         <v>38</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>38</v>
@@ -8826,13 +8802,13 @@
         <v>38</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>42</v>
@@ -8843,13 +8819,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8860,7 +8836,7 @@
         <v>39</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>38</v>
@@ -8869,19 +8845,19 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
@@ -8895,7 +8871,7 @@
         <v>38</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="V61" t="s" s="2">
         <v>38</v>
@@ -8907,10 +8883,10 @@
         <v>38</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>38</v>
@@ -8931,13 +8907,13 @@
         <v>38</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>42</v>
@@ -8948,13 +8924,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8965,7 +8941,7 @@
         <v>39</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>38</v>
@@ -8974,19 +8950,19 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
@@ -9012,13 +8988,13 @@
         <v>38</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>282</v>
+        <v>38</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="AB62" t="s" s="2">
         <v>38</v>
@@ -9036,30 +9012,30 @@
         <v>38</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>66</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9070,7 +9046,7 @@
         <v>39</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>38</v>
@@ -9079,18 +9055,20 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>285</v>
+        <v>63</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
         <v>38</v>
@@ -9139,30 +9117,30 @@
         <v>38</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>66</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9182,18 +9160,20 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>46</v>
+        <v>247</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
         <v>38</v>
@@ -9242,7 +9222,7 @@
         <v>38</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>39</v>
@@ -9251,25 +9231,25 @@
         <v>44</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
@@ -9285,19 +9265,19 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>133</v>
+        <v>252</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>135</v>
+        <v>254</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
@@ -9335,19 +9315,19 @@
         <v>38</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
@@ -9359,31 +9339,29 @@
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>56</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="D66" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>38</v>
@@ -9392,19 +9370,23 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="Q66" t="s" s="2">
         <v>38</v>
       </c>
@@ -9452,7 +9434,7 @@
         <v>38</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>39</v>
@@ -9464,18 +9446,18 @@
         <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>56</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9483,7 +9465,7 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>44</v>
@@ -9492,22 +9474,22 @@
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
@@ -9533,13 +9515,13 @@
         <v>38</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="AB67" t="s" s="2">
         <v>38</v>
@@ -9557,10 +9539,10 @@
         <v>38</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>44</v>
@@ -9574,13 +9556,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9591,7 +9573,7 @@
         <v>39</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>38</v>
@@ -9600,18 +9582,20 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>301</v>
+        <v>86</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>38</v>
@@ -9636,13 +9620,13 @@
         <v>38</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="AB68" t="s" s="2">
         <v>38</v>
@@ -9660,30 +9644,30 @@
         <v>38</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>305</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9694,7 +9678,7 @@
         <v>39</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>38</v>
@@ -9703,19 +9687,19 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>307</v>
+        <v>86</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
@@ -9741,13 +9725,13 @@
         <v>38</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>38</v>
+        <v>276</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="AB69" t="s" s="2">
         <v>38</v>
@@ -9765,13 +9749,13 @@
         <v>38</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>42</v>
@@ -9782,13 +9766,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9808,19 +9792,19 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
@@ -9846,10 +9830,10 @@
         <v>38</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>38</v>
@@ -9870,7 +9854,7 @@
         <v>38</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>39</v>
@@ -9887,13 +9871,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9913,19 +9897,19 @@
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
@@ -9951,13 +9935,13 @@
         <v>38</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>319</v>
+        <v>38</v>
       </c>
       <c r="AB71" t="s" s="2">
         <v>38</v>
@@ -9975,7 +9959,7 @@
         <v>38</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>39</v>
@@ -9992,13 +9976,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10009,7 +9993,7 @@
         <v>39</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>38</v>
@@ -10018,19 +10002,19 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>321</v>
+        <v>86</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
@@ -10056,13 +10040,13 @@
         <v>38</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="AB72" t="s" s="2">
         <v>38</v>
@@ -10080,13 +10064,13 @@
         <v>38</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>42</v>
@@ -10097,17 +10081,17 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>326</v>
+        <v>38</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
@@ -10123,20 +10107,18 @@
         <v>38</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
         <v>38</v>
@@ -10185,7 +10167,7 @@
         <v>38</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>39</v>
@@ -10197,22 +10179,22 @@
         <v>42</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>226</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>332</v>
+        <v>38</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
@@ -10228,20 +10210,18 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>333</v>
+        <v>46</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
         <v>38</v>
@@ -10290,7 +10270,7 @@
         <v>38</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>331</v>
+        <v>48</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>39</v>
@@ -10299,32 +10279,32 @@
         <v>44</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>38</v>
@@ -10333,19 +10313,19 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>336</v>
+        <v>146</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>337</v>
+        <v>184</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
@@ -10383,44 +10363,46 @@
         <v>38</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>335</v>
+        <v>55</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>226</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="D76" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="E76" t="s" s="2">
         <v>38</v>
       </c>
@@ -10438,20 +10420,18 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>38</v>
@@ -10500,30 +10480,30 @@
         <v>38</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>338</v>
+        <v>55</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>226</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10534,7 +10514,7 @@
         <v>39</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>38</v>
@@ -10543,19 +10523,19 @@
         <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>343</v>
+        <v>45</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -10605,30 +10585,30 @@
         <v>38</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>226</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10639,7 +10619,7 @@
         <v>39</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>38</v>
@@ -10648,20 +10628,18 @@
         <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>187</v>
+        <v>306</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
         <v>38</v>
@@ -10686,13 +10664,13 @@
         <v>38</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>349</v>
+        <v>38</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>350</v>
+        <v>38</v>
       </c>
       <c r="AB78" t="s" s="2">
         <v>38</v>
@@ -10710,30 +10688,30 @@
         <v>38</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>66</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10756,16 +10734,16 @@
         <v>38</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
@@ -10815,7 +10793,7 @@
         <v>38</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>39</v>
@@ -10832,13 +10810,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10858,18 +10836,20 @@
         <v>38</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>357</v>
+        <v>86</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
         <v>38</v>
@@ -10894,10 +10874,10 @@
         <v>38</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>38</v>
+        <v>319</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>38</v>
@@ -10918,7 +10898,7 @@
         <v>38</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>39</v>
@@ -10935,13 +10915,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10952,7 +10932,7 @@
         <v>39</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>38</v>
@@ -10961,18 +10941,20 @@
         <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>46</v>
+        <v>321</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
         <v>38</v>
@@ -10997,13 +10979,13 @@
         <v>38</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>38</v>
+        <v>324</v>
       </c>
       <c r="AB81" t="s" s="2">
         <v>38</v>
@@ -11021,41 +11003,41 @@
         <v>38</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>38</v>
@@ -11067,16 +11049,16 @@
         <v>38</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>135</v>
+        <v>329</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
@@ -11114,46 +11096,46 @@
         <v>38</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>55</v>
+        <v>325</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" t="s" s="2">
@@ -11166,26 +11148,24 @@
         <v>38</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>50</v>
+        <v>332</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
         <v>38</v>
       </c>
@@ -11233,7 +11213,7 @@
         <v>38</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>39</v>
@@ -11245,26 +11225,26 @@
         <v>42</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>56</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>38</v>
+        <v>337</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>44</v>
@@ -11276,19 +11256,19 @@
         <v>38</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
@@ -11338,10 +11318,10 @@
         <v>38</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>44</v>
@@ -11350,18 +11330,18 @@
         <v>42</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>66</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11381,19 +11361,19 @@
         <v>38</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
@@ -11443,7 +11423,7 @@
         <v>38</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>39</v>
@@ -11455,18 +11435,18 @@
         <v>42</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>66</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11486,19 +11466,19 @@
         <v>38</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -11548,7 +11528,7 @@
         <v>38</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>39</v>
@@ -11560,18 +11540,18 @@
         <v>42</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>66</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11591,18 +11571,20 @@
         <v>38</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
         <v>38</v>
@@ -11651,7 +11633,7 @@
         <v>38</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>39</v>
@@ -11663,18 +11645,18 @@
         <v>42</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>66</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11694,18 +11676,20 @@
         <v>38</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>46</v>
+        <v>352</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
         <v>38</v>
@@ -11730,13 +11714,13 @@
         <v>38</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>38</v>
+        <v>354</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>38</v>
+        <v>355</v>
       </c>
       <c r="AB88" t="s" s="2">
         <v>38</v>
@@ -11754,7 +11738,7 @@
         <v>38</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>48</v>
+        <v>351</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>39</v>
@@ -11763,25 +11747,25 @@
         <v>44</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
@@ -11800,16 +11784,16 @@
         <v>38</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>50</v>
+        <v>357</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>133</v>
+        <v>358</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>173</v>
+        <v>359</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
@@ -11847,19 +11831,19 @@
         <v>38</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>55</v>
+        <v>356</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>39</v>
@@ -11871,22 +11855,22 @@
         <v>42</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>363</v>
+        <v>38</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
@@ -11899,26 +11883,22 @@
         <v>38</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>50</v>
+        <v>362</v>
       </c>
       <c r="M90" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="N90" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="P90" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
         <v>38</v>
       </c>
@@ -11966,7 +11946,7 @@
         <v>38</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>39</v>
@@ -11978,18 +11958,18 @@
         <v>42</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12015,14 +11995,12 @@
         <v>45</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>383</v>
+        <v>46</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
         <v>38</v>
@@ -12071,7 +12049,7 @@
         <v>38</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>382</v>
+        <v>48</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>39</v>
@@ -12080,32 +12058,32 @@
         <v>44</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>38</v>
@@ -12117,16 +12095,16 @@
         <v>38</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>386</v>
+        <v>146</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>387</v>
+        <v>184</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
@@ -12152,58 +12130,58 @@
         <v>38</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>388</v>
+        <v>38</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>389</v>
+        <v>38</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>385</v>
+        <v>55</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>38</v>
+        <v>368</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" t="s" s="2">
@@ -12216,22 +12194,26 @@
         <v>38</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>29</v>
+        <v>369</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="Q93" t="s" s="2">
         <v>38</v>
       </c>
@@ -12279,7 +12261,7 @@
         <v>38</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>29</v>
+        <v>371</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>39</v>
@@ -12291,18 +12273,18 @@
         <v>42</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12310,7 +12292,7 @@
       </c>
       <c r="F94" s="2"/>
       <c r="G94" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>44</v>
@@ -12328,12 +12310,14 @@
         <v>45</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>46</v>
+        <v>373</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
         <v>38</v>
@@ -12382,30 +12366,30 @@
         <v>38</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>48</v>
+        <v>372</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>49</v>
+        <v>375</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>49</v>
+        <v>375</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12416,7 +12400,7 @@
         <v>39</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>38</v>
@@ -12428,15 +12412,17 @@
         <v>38</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>29</v>
+        <v>376</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
         <v>38</v>
@@ -12473,42 +12459,42 @@
         <v>38</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>55</v>
+        <v>375</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12516,7 +12502,7 @@
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>44</v>
@@ -12531,16 +12517,16 @@
         <v>38</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>59</v>
+        <v>379</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>61</v>
+        <v>249</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
@@ -12548,7 +12534,7 @@
       </c>
       <c r="R96" s="2"/>
       <c r="S96" t="s" s="2">
-        <v>390</v>
+        <v>38</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>38</v>
@@ -12590,30 +12576,30 @@
         <v>38</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>62</v>
+        <v>381</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>62</v>
+        <v>381</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12624,7 +12610,7 @@
         <v>39</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>38</v>
@@ -12636,13 +12622,13 @@
         <v>38</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>187</v>
+        <v>362</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>64</v>
+        <v>382</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>65</v>
+        <v>383</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -12669,11 +12655,13 @@
         <v>38</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Z97" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AA97" t="s" s="2">
-        <v>393</v>
+        <v>38</v>
       </c>
       <c r="AB97" t="s" s="2">
         <v>38</v>
@@ -12691,13 +12679,13 @@
         <v>38</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>62</v>
+        <v>381</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>42</v>
@@ -12708,13 +12696,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>29</v>
+        <v>384</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>29</v>
+        <v>384</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12725,7 +12713,7 @@
         <v>39</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>38</v>
@@ -12737,13 +12725,13 @@
         <v>38</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -12794,16 +12782,16 @@
         <v>38</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>38</v>
@@ -12811,24 +12799,24 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>38</v>
@@ -12840,15 +12828,17 @@
         <v>38</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
         <v>38</v>
@@ -12885,74 +12875,78 @@
         <v>38</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>49</v>
+        <v>386</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>49</v>
+        <v>386</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>38</v>
+        <v>368</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>50</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>29</v>
+        <v>369</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="Q100" t="s" s="2">
         <v>38</v>
       </c>
@@ -12988,19 +12982,19 @@
         <v>38</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>55</v>
+        <v>371</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>39</v>
@@ -13017,13 +13011,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>57</v>
+        <v>387</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>57</v>
+        <v>387</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13031,7 +13025,7 @@
       </c>
       <c r="F101" s="2"/>
       <c r="G101" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>44</v>
@@ -13046,16 +13040,16 @@
         <v>38</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>59</v>
+        <v>388</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>60</v>
+        <v>389</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>61</v>
+        <v>249</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -13063,7 +13057,7 @@
       </c>
       <c r="R101" s="2"/>
       <c r="S101" t="s" s="2">
-        <v>394</v>
+        <v>38</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>38</v>
@@ -13105,30 +13099,30 @@
         <v>38</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>57</v>
+        <v>387</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>62</v>
+        <v>390</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>62</v>
+        <v>390</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13151,15 +13145,17 @@
         <v>38</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>213</v>
+        <v>86</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>64</v>
+        <v>391</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O102" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
         <v>38</v>
@@ -13184,13 +13180,13 @@
         <v>38</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>38</v>
+        <v>393</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="AB102" t="s" s="2">
         <v>38</v>
@@ -13208,7 +13204,7 @@
         <v>38</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>62</v>
+        <v>390</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>39</v>
